--- a/forwardprimer-v3_30.xlsx
+++ b/forwardprimer-v3_30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_30" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2785-CAAGTGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGACGTTCGTCGGCAGCGTC</t>
+    <t>F2785-AAGAGGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2786-CTAGTGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTGGTCATCGTCGGCAGCGTC</t>
+    <t>F2786-GTACCTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2787-AGCAACTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACTCAATCGTCGGCAGCGTC</t>
+    <t>F2787-GAACAAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2788-ACATCTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCTTGGTTCGTCGGCAGCGTC</t>
+    <t>F2788-GACGAACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGAACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2789-CCACATCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACATCACTTCGTCGGCAGCGTC</t>
+    <t>F2789-CTCGTTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2790-AAGTGCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGCACGTTCGTCGGCAGCGTC</t>
+    <t>F2790-TACCAGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2791-TAGAGCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGCTCTTTCGTCGGCAGCGTC</t>
+    <t>F2791-GCTGTAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2792-ACCATGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATGTAGGTCGTCGGCAGCGTC</t>
+    <t>F2792-ACGACTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACTGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2793-GATCACTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCACTCGATCGTCGGCAGCGTC</t>
+    <t>F2793-CAGTCAACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCAACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2794-AGTACAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAGAACTCGTCGGCAGCGTC</t>
+    <t>F2794-CACCTTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACCTTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2795-AGTCTCGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCGTTGTCGTCGGCAGCGTC</t>
+    <t>F2795-TTGTTGACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2796-CGAAGCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGCTGAATCGTCGGCAGCGTC</t>
+    <t>F2796-TAGCATGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCATGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2797-GAGAGTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTGACATCGTCGGCAGCGTC</t>
+    <t>F2797-AGACTCTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2798-CCTCGAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCGAAGTTTCGTCGGCAGCGTC</t>
+    <t>F2798-TGGTTGGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTGGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2799-TCTCATGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCATGTCGTCGTCGGCAGCGTC</t>
+    <t>F2799-TGTCATCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCATCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2800-AACTCATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCATCCATCGTCGGCAGCGTC</t>
+    <t>F2800-AAGAGGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2801-CAAGTACGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTACGAGTCGTCGGCAGCGTC</t>
+    <t>F2801-AGTCAGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2802-TTCAGTGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGTGAGGTCGTCGGCAGCGTC</t>
+    <t>F2802-TGAACCACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACCACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2803-AACCATCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCGAATCGTCGGCAGCGTC</t>
+    <t>F2803-CATCAAGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCAAGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2804-CTACTCTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCTCTCTCGTCGGCAGCGTC</t>
+    <t>F2804-TCCAGTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2805-GTTGTGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGTGACTCGTCGGCAGCGTC</t>
+    <t>F2805-TCATGGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGGTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2806-AGTCAGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGAGTTTCGTCGGCAGCGTC</t>
+    <t>F2806-TCAAGGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2807-CTCAGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAGACTTCGTCGGCAGCGTC</t>
+    <t>F2807-GAGAACAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F2808-GTCTGACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGACAGATCGTCGGCAGCGTC</t>
+    <t>F2808-GGTTGAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F2809-CCTTCAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCAAGTCTCGTCGGCAGCGTC</t>
+    <t>F2809-TGTCCTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F2810-GCTTGCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGCAGAATCGTCGGCAGCGTC</t>
+    <t>F2810-GCATGCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F2811-ACTACCTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACCTGCATCGTCGGCAGCGTC</t>
+    <t>F2811-ATCCTAGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTAGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F2812-TCACTGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGATCGTCGTCGGCAGCGTC</t>
+    <t>F2812-AGCTACATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2813-GCATGTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGTCTAGTCGTCGGCAGCGTC</t>
+    <t>F2813-CAACGTTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2814-TCCACAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAAGGATCGTCGGCAGCGTC</t>
+    <t>F2814-CACTGACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F2815-TTCTGGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGGTCCATCGTCGGCAGCGTC</t>
+    <t>F2815-CAGAGTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F2816-GAACAAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGCTATCGTCGGCAGCGTC</t>
+    <t>F2816-CAGACGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGACGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F2817-GCTTCATGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCATGGTTCGTCGGCAGCGTC</t>
+    <t>F2817-ACTCACATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F2818-GACATGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACATGTTGCTCGTCGGCAGCGTC</t>
+    <t>F2818-ACAGGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F2819-TCCTGTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTAGAATCGTCGGCAGCGTC</t>
+    <t>F2819-GCACATGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACATGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F2820-TCCTAGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTAGATCCTCGTCGGCAGCGTC</t>
+    <t>F2820-CTGGTGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTGTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F2821-AAGGAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAGCTTCTCGTCGGCAGCGTC</t>
+    <t>F2821-GATGATGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGATGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F2822-CATCCACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCACTGTTCGTCGGCAGCGTC</t>
+    <t>F2822-TACGATCCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGATCCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F2823-TTGATGCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGCACGTCGTCGGCAGCGTC</t>
+    <t>F2823-AGCTGAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGAGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F2824-TTCCAGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGACAGTCGTCGGCAGCGTC</t>
+    <t>F2824-TACTACCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTACCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F2825-ACAAGAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAACCATCGTCGGCAGCGTC</t>
+    <t>F2825-TCTGATCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGATCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F2826-TGGATGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGAGAGTCGTCGGCAGCGTC</t>
+    <t>F2826-AACAACACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F2827-AAGGTAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2827-TCCAAGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAAGCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F2828-GTCAACGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACGTAGTCGTCGGCAGCGTC</t>
+    <t>F2828-AGACACAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACACAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F2829-CTTGGTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTAGAGTCGTCGGCAGCGTC</t>
+    <t>F2829-CTGCTTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F2830-CGATGAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGAGTACTCGTCGGCAGCGTC</t>
+    <t>F2830-TGGTTCGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F2831-ACGAAGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGACAGTCGTCGGCAGCGTC</t>
+    <t>F2831-ACTGCACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F2832-GGTGTTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTCAACTCGTCGGCAGCGTC</t>
+    <t>F2832-ACAGGATCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGATCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F2833-ACCTGCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTGCTTGTTCGTCGGCAGCGTC</t>
+    <t>F2833-ACACAGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F2834-TGCTTCCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCCAGTTCGTCGGCAGCGTC</t>
+    <t>F2834-CAACGTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F2835-AGGTGTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGTCTTCTCGTCGGCAGCGTC</t>
+    <t>F2835-CTACTGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F2836-ACACCTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCTGTGATCGTCGGCAGCGTC</t>
+    <t>F2836-CGAACTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F2837-ACGAACCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAACCTTCTCGTCGGCAGCGTC</t>
+    <t>F2837-AGATCCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F2838-ACTCTTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTTCGTATCGTCGGCAGCGTC</t>
+    <t>F2838-GTTCGTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2839-ACTTGCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGCTAGGTCGTCGGCAGCGTC</t>
+    <t>F2839-ATCGAGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2840-TAGTCCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCTAGCTCGTCGGCAGCGTC</t>
+    <t>F2840-CGTGTACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2841-ATGTCCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCATGTTCGTCGGCAGCGTC</t>
+    <t>F2841-ACAGTCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2842-TAGACCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCAACCTCGTCGGCAGCGTC</t>
+    <t>F2842-AGCTACACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2843-AGTGATGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGATGCTTTCGTCGGCAGCGTC</t>
+    <t>F2843-CTACCTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2844-AACCACTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACTGAGTCGTCGGCAGCGTC</t>
+    <t>F2844-CATCCTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2845-CGTTGAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGAGATGTCGTCGGCAGCGTC</t>
+    <t>F2845-TCAGGATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGATGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2846-AGTCTGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGGTCATCGTCGGCAGCGTC</t>
+    <t>F2846-GTACAGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2847-TGCTACTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACTGATTCGTCGGCAGCGTC</t>
+    <t>F2847-ATGCACTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCACTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2848-TGTGACATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGACATCATCGTCGGCAGCGTC</t>
+    <t>F2848-ACAGTTGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2849-TGCATGGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGGAGTTCGTCGGCAGCGTC</t>
+    <t>F2849-ACACTACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2850-GTAGACAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACAACGTCGTCGGCAGCGTC</t>
+    <t>F2850-AGAGAAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2851-ACATCGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCGTGTGTCGTCGGCAGCGTC</t>
+    <t>F2851-GTAGACTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2852-TGATCAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCAAGAGTCGTCGGCAGCGTC</t>
+    <t>F2852-TGTCCATGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCATGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2853-CAGTTCAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCAGTCTCGTCGGCAGCGTC</t>
+    <t>F2853-GATCAGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2854-ACAACTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACTGATCTCGTCGGCAGCGTC</t>
+    <t>F2854-TCCTCATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCATCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2855-GACTCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTCTCTCTTCGTCGGCAGCGTC</t>
+    <t>F2855-GAACATGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACATGGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2856-GCTAGTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTTGGATCGTCGGCAGCGTC</t>
+    <t>F2856-TTCGTAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2857-GATCTACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTACAAGTCGTCGGCAGCGTC</t>
+    <t>F2857-AACGAACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2858-GGAACACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACACATGTCGTCGGCAGCGTC</t>
+    <t>F2858-CCATGCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATGCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2859-GTGTGCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGCTGTATCGTCGGCAGCGTC</t>
+    <t>F2859-TGGTGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2860-TCCAACTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACTCGTTCGTCGGCAGCGTC</t>
+    <t>F2860-CCACATGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACATGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2861-GAGGAAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGAAGCATTCGTCGGCAGCGTC</t>
+    <t>F2861-GTGACAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACAAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2862-TGACTACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTACAGTTCGTCGGCAGCGTC</t>
+    <t>F2862-GAACGACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGACTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2863-GTCATGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGTGAATCGTCGGCAGCGTC</t>
+    <t>F2863-CAAGCACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2864-CGAACTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTAGAGTCGTCGGCAGCGTC</t>
+    <t>F2864-GAACTTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2865-ACAAGTTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTTCCTTCGTCGGCAGCGTC</t>
+    <t>F2865-ACTCAGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2866-TCTCGTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTTGCATCGTCGGCAGCGTC</t>
+    <t>F2866-CAAGAGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2867-TAGTCCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCAGACTCGTCGGCAGCGTC</t>
+    <t>F2867-GCTTCCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2868-CTCCTCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTCTCATTCGTCGGCAGCGTC</t>
+    <t>F2868-GTCACACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2869-TACATGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATGAAGGTCGTCGGCAGCGTC</t>
+    <t>F2869-CAGTTGTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTGTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2870-GTCTTGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGACGATCGTCGGCAGCGTC</t>
+    <t>F2870-TGTGTCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2871-AGAGGTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGTTGAGTCGTCGGCAGCGTC</t>
+    <t>F2871-CAAGATGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGATGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2872-GACTGACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGACAAGTCGTCGGCAGCGTC</t>
+    <t>F2872-TGCTAGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2873-GTGTCACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCACATGTCGTCGGCAGCGTC</t>
+    <t>F2873-CGTACAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2874-AACAGTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTCTCTTCGTCGGCAGCGTC</t>
+    <t>F2874-AGTAGACGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGACGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2875-CACTCCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTCCAGTTTCGTCGGCAGCGTC</t>
+    <t>F2875-ATCGACTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGACTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2876-ATGGACCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGACCATGTCGTCGGCAGCGTC</t>
+    <t>F2876-GTACTCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTCAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2877-GTTCTACTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTACTGGTCGTCGGCAGCGTC</t>
+    <t>F2877-CATGCAAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCAAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2878-TCGTGTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTGTCTTCGTCGGCAGCGTC</t>
+    <t>F2878-ATGATCGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATCGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2879-ACTAGACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGACTGCTCGTCGGCAGCGTC</t>
+    <t>F2879-ACTGTGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2880-TGTCTGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGTGACTCGTCGGCAGCGTC</t>
+    <t>F2880-TCAGAACGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAACGTCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
